--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Edn1-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Edn1-Ednra.xlsx
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Edn1</t>
   </si>
   <si>
     <t>Ednra</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.42578233333333</v>
+        <v>20.66988266666667</v>
       </c>
       <c r="H2">
-        <v>52.277347</v>
+        <v>62.009648</v>
       </c>
       <c r="I2">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="J2">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.373217333333334</v>
+        <v>2.161420333333333</v>
       </c>
       <c r="N2">
-        <v>4.119652</v>
+        <v>6.484261</v>
       </c>
       <c r="O2">
-        <v>0.04216891968544611</v>
+        <v>0.06892252797869364</v>
       </c>
       <c r="P2">
-        <v>0.04216891968544611</v>
+        <v>0.06892252797869362</v>
       </c>
       <c r="Q2">
-        <v>23.92938634702712</v>
+        <v>44.67630468334756</v>
       </c>
       <c r="R2">
-        <v>215.364477123244</v>
+        <v>402.086742150128</v>
       </c>
       <c r="S2">
-        <v>0.04038077102905822</v>
+        <v>0.06611067295957739</v>
       </c>
       <c r="T2">
-        <v>0.04038077102905822</v>
+        <v>0.06611067295957737</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.42578233333333</v>
+        <v>20.66988266666667</v>
       </c>
       <c r="H3">
-        <v>52.277347</v>
+        <v>62.009648</v>
       </c>
       <c r="I3">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="J3">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>77.106487</v>
       </c>
       <c r="O3">
-        <v>0.7892650295534415</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="P3">
-        <v>0.7892650295534415</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="Q3">
-        <v>447.8802863166655</v>
+        <v>531.2606797096196</v>
       </c>
       <c r="R3">
-        <v>4030.922576849989</v>
+        <v>4781.346117386576</v>
       </c>
       <c r="S3">
-        <v>0.7557967023433178</v>
+        <v>0.7861438250432708</v>
       </c>
       <c r="T3">
-        <v>0.7557967023433178</v>
+        <v>0.7861438250432708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.42578233333333</v>
+        <v>20.66988266666667</v>
       </c>
       <c r="H4">
-        <v>52.277347</v>
+        <v>62.009648</v>
       </c>
       <c r="I4">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="J4">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.08316866666666667</v>
+        <v>3.456060333333333</v>
       </c>
       <c r="N4">
-        <v>0.249506</v>
+        <v>10.368181</v>
       </c>
       <c r="O4">
-        <v>0.00255395321620295</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="P4">
-        <v>0.00255395321620295</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="Q4">
-        <v>1.449279082286889</v>
+        <v>71.43636157892088</v>
       </c>
       <c r="R4">
-        <v>13.043511740582</v>
+        <v>642.927254210288</v>
       </c>
       <c r="S4">
-        <v>0.002445654306814313</v>
+        <v>0.1057094128809287</v>
       </c>
       <c r="T4">
-        <v>0.002445654306814313</v>
+        <v>0.1057094128809287</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,108 +726,108 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.42578233333333</v>
+        <v>20.66988266666667</v>
       </c>
       <c r="H5">
-        <v>52.277347</v>
+        <v>62.009648</v>
       </c>
       <c r="I5">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="J5">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.234191333333333</v>
+        <v>0.0405</v>
       </c>
       <c r="N5">
-        <v>15.702574</v>
+        <v>0.1215</v>
       </c>
       <c r="O5">
-        <v>0.1607321642363904</v>
+        <v>0.001291448192694785</v>
       </c>
       <c r="P5">
-        <v>0.1607321642363904</v>
+        <v>0.001291448192694784</v>
       </c>
       <c r="Q5">
-        <v>91.20987886568645</v>
+        <v>0.837130248</v>
       </c>
       <c r="R5">
-        <v>820.888909791178</v>
+        <v>7.534172232</v>
       </c>
       <c r="S5">
-        <v>0.1539164097503485</v>
+        <v>0.001238760556459503</v>
       </c>
       <c r="T5">
-        <v>0.1539164097503485</v>
+        <v>0.001238760556459502</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>17.42578233333333</v>
+        <v>0.232822</v>
       </c>
       <c r="H6">
-        <v>52.277347</v>
+        <v>0.698466</v>
       </c>
       <c r="I6">
-        <v>0.9575955782190683</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="J6">
-        <v>0.9575955782190683</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1719393333333333</v>
+        <v>2.161420333333333</v>
       </c>
       <c r="N6">
-        <v>0.515818</v>
+        <v>6.484261</v>
       </c>
       <c r="O6">
-        <v>0.005279933308519127</v>
+        <v>0.06892252797869364</v>
       </c>
       <c r="P6">
-        <v>0.005279933308519127</v>
+        <v>0.06892252797869362</v>
       </c>
       <c r="Q6">
-        <v>2.996177397205111</v>
+        <v>0.5032262048473334</v>
       </c>
       <c r="R6">
-        <v>26.965596574846</v>
+        <v>4.529035843626001</v>
       </c>
       <c r="S6">
-        <v>0.005056040789529492</v>
+        <v>0.0007446592391458853</v>
       </c>
       <c r="T6">
-        <v>0.005056040789529492</v>
+        <v>0.0007446592391458853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,40 +856,40 @@
         <v>0.698466</v>
       </c>
       <c r="I7">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="J7">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.373217333333334</v>
+        <v>25.70216233333333</v>
       </c>
       <c r="N7">
-        <v>4.119652</v>
+        <v>77.106487</v>
       </c>
       <c r="O7">
-        <v>0.04216891968544611</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="P7">
-        <v>0.04216891968544611</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="Q7">
-        <v>0.3197152059813334</v>
+        <v>5.984028838771334</v>
       </c>
       <c r="R7">
-        <v>2.877436853832001</v>
+        <v>53.85625954894201</v>
       </c>
       <c r="S7">
-        <v>0.000539518495794788</v>
+        <v>0.008854988709219462</v>
       </c>
       <c r="T7">
-        <v>0.000539518495794788</v>
+        <v>0.008854988709219464</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -918,10 +918,10 @@
         <v>0.698466</v>
       </c>
       <c r="I8">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="J8">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.70216233333333</v>
+        <v>3.456060333333333</v>
       </c>
       <c r="N8">
-        <v>77.106487</v>
+        <v>10.368181</v>
       </c>
       <c r="O8">
-        <v>0.7892650295534415</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="P8">
-        <v>0.7892650295534415</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="Q8">
-        <v>5.984028838771334</v>
+        <v>0.8046468789273333</v>
       </c>
       <c r="R8">
-        <v>53.85625954894201</v>
+        <v>7.241821910346</v>
       </c>
       <c r="S8">
-        <v>0.01009803155272833</v>
+        <v>0.001190692628625964</v>
       </c>
       <c r="T8">
-        <v>0.01009803155272833</v>
+        <v>0.001190692628625965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,10 +980,10 @@
         <v>0.698466</v>
       </c>
       <c r="I9">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="J9">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,42 +992,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.08316866666666667</v>
+        <v>0.0405</v>
       </c>
       <c r="N9">
-        <v>0.249506</v>
+        <v>0.1215</v>
       </c>
       <c r="O9">
-        <v>0.00255395321620295</v>
+        <v>0.001291448192694785</v>
       </c>
       <c r="P9">
-        <v>0.00255395321620295</v>
+        <v>0.001291448192694784</v>
       </c>
       <c r="Q9">
-        <v>0.01936349531066667</v>
+        <v>0.009429291000000001</v>
       </c>
       <c r="R9">
-        <v>0.174271457796</v>
+        <v>0.084863619</v>
       </c>
       <c r="S9">
-        <v>3.267584296240906E-05</v>
+        <v>1.395318565311067E-05</v>
       </c>
       <c r="T9">
-        <v>3.267584296240906E-05</v>
+        <v>1.395318565311067E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.232822</v>
+        <v>0.144358</v>
       </c>
       <c r="H10">
-        <v>0.698466</v>
+        <v>0.433074</v>
       </c>
       <c r="I10">
-        <v>0.01279422142704295</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="J10">
-        <v>0.01279422142704295</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,42 +1054,42 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.234191333333333</v>
+        <v>2.161420333333333</v>
       </c>
       <c r="N10">
-        <v>15.702574</v>
+        <v>6.484261</v>
       </c>
       <c r="O10">
-        <v>0.1607321642363904</v>
+        <v>0.06892252797869364</v>
       </c>
       <c r="P10">
-        <v>0.1607321642363904</v>
+        <v>0.06892252797869362</v>
       </c>
       <c r="Q10">
-        <v>1.218634894609333</v>
+        <v>0.3120183164793333</v>
       </c>
       <c r="R10">
-        <v>10.967714051484</v>
+        <v>2.808164848314</v>
       </c>
       <c r="S10">
-        <v>0.002056442899688214</v>
+        <v>0.0004617154669430798</v>
       </c>
       <c r="T10">
-        <v>0.002056442899688214</v>
+        <v>0.0004617154669430797</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1098,46 +1098,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.232822</v>
+        <v>0.144358</v>
       </c>
       <c r="H11">
-        <v>0.698466</v>
+        <v>0.433074</v>
       </c>
       <c r="I11">
-        <v>0.01279422142704295</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="J11">
-        <v>0.01279422142704295</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1719393333333333</v>
+        <v>25.70216233333333</v>
       </c>
       <c r="N11">
-        <v>0.515818</v>
+        <v>77.106487</v>
       </c>
       <c r="O11">
-        <v>0.005279933308519127</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="P11">
-        <v>0.005279933308519127</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="Q11">
-        <v>0.04003125946533333</v>
+        <v>3.710312750115333</v>
       </c>
       <c r="R11">
-        <v>0.360281335188</v>
+        <v>33.392814751038</v>
       </c>
       <c r="S11">
-        <v>6.755263586921322E-05</v>
+        <v>0.005490410958094609</v>
       </c>
       <c r="T11">
-        <v>6.755263586921322E-05</v>
+        <v>0.005490410958094609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2319753333333333</v>
+        <v>0.144358</v>
       </c>
       <c r="H12">
-        <v>0.695926</v>
+        <v>0.433074</v>
       </c>
       <c r="I12">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="J12">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.373217333333334</v>
+        <v>3.456060333333333</v>
       </c>
       <c r="N12">
-        <v>4.119652</v>
+        <v>10.368181</v>
       </c>
       <c r="O12">
-        <v>0.04216891968544611</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="P12">
-        <v>0.04216891968544611</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="Q12">
-        <v>0.3185525486391111</v>
+        <v>0.4989099575993333</v>
       </c>
       <c r="R12">
-        <v>2.866972937752001</v>
+        <v>4.490189618393999</v>
       </c>
       <c r="S12">
-        <v>0.0005375565148546725</v>
+        <v>0.0007382721842574455</v>
       </c>
       <c r="T12">
-        <v>0.0005375565148546725</v>
+        <v>0.0007382721842574455</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,140 +1222,140 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2319753333333333</v>
+        <v>0.144358</v>
       </c>
       <c r="H13">
-        <v>0.695926</v>
+        <v>0.433074</v>
       </c>
       <c r="I13">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="J13">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>25.70216233333333</v>
+        <v>0.0405</v>
       </c>
       <c r="N13">
-        <v>77.106487</v>
+        <v>0.1215</v>
       </c>
       <c r="O13">
-        <v>0.7892650295534415</v>
+        <v>0.001291448192694785</v>
       </c>
       <c r="P13">
-        <v>0.7892650295534415</v>
+        <v>0.001291448192694784</v>
       </c>
       <c r="Q13">
-        <v>5.962267674662445</v>
+        <v>0.005846499</v>
       </c>
       <c r="R13">
-        <v>53.66040907196201</v>
+        <v>0.052618491</v>
       </c>
       <c r="S13">
-        <v>0.0100613096505256</v>
+        <v>8.651476125588434E-06</v>
       </c>
       <c r="T13">
-        <v>0.0100613096505256</v>
+        <v>8.651476125588434E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2319753333333333</v>
+        <v>0.192848</v>
       </c>
       <c r="H14">
-        <v>0.695926</v>
+        <v>0.5785439999999999</v>
       </c>
       <c r="I14">
-        <v>0.01274769472076851</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="J14">
-        <v>0.01274769472076851</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08316866666666667</v>
+        <v>2.161420333333333</v>
       </c>
       <c r="N14">
-        <v>0.249506</v>
+        <v>6.484261</v>
       </c>
       <c r="O14">
-        <v>0.00255395321620295</v>
+        <v>0.06892252797869364</v>
       </c>
       <c r="P14">
-        <v>0.00255395321620295</v>
+        <v>0.06892252797869362</v>
       </c>
       <c r="Q14">
-        <v>0.01929307917288889</v>
+        <v>0.4168255884426667</v>
       </c>
       <c r="R14">
-        <v>0.173637712556</v>
+        <v>3.751430295984</v>
       </c>
       <c r="S14">
-        <v>3.25570159312801E-05</v>
+        <v>0.0006168061650136401</v>
       </c>
       <c r="T14">
-        <v>3.25570159312801E-05</v>
+        <v>0.0006168061650136399</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2319753333333333</v>
+        <v>0.192848</v>
       </c>
       <c r="H15">
-        <v>0.695926</v>
+        <v>0.5785439999999999</v>
       </c>
       <c r="I15">
-        <v>0.01274769472076851</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="J15">
-        <v>0.01274769472076851</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,90 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.234191333333333</v>
+        <v>25.70216233333333</v>
       </c>
       <c r="N15">
-        <v>15.702574</v>
+        <v>77.106487</v>
       </c>
       <c r="O15">
-        <v>0.1607321642363904</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="P15">
-        <v>0.1607321642363904</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="Q15">
-        <v>1.214203279280444</v>
+        <v>4.956610601658666</v>
       </c>
       <c r="R15">
-        <v>10.927829513524</v>
+        <v>44.609495414928</v>
       </c>
       <c r="S15">
-        <v>0.002048964561493931</v>
+        <v>0.007334645620240161</v>
       </c>
       <c r="T15">
-        <v>0.002048964561493931</v>
+        <v>0.007334645620240161</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2319753333333333</v>
+        <v>0.192848</v>
       </c>
       <c r="H16">
-        <v>0.695926</v>
+        <v>0.5785439999999999</v>
       </c>
       <c r="I16">
-        <v>0.01274769472076851</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="J16">
-        <v>0.01274769472076851</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1719393333333333</v>
+        <v>3.456060333333333</v>
       </c>
       <c r="N16">
-        <v>0.515818</v>
+        <v>10.368181</v>
       </c>
       <c r="O16">
-        <v>0.005279933308519127</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="P16">
-        <v>0.005279933308519127</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="Q16">
-        <v>0.03988568416311111</v>
+        <v>0.6664943231626667</v>
       </c>
       <c r="R16">
-        <v>0.358971157468</v>
+        <v>5.998448908464</v>
       </c>
       <c r="S16">
-        <v>6.730697796301907E-05</v>
+        <v>0.0009862585668246986</v>
       </c>
       <c r="T16">
-        <v>6.730697796301907E-05</v>
+        <v>0.0009862585668246986</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,14 +1455,14 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1470,60 +1470,60 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3068543333333333</v>
+        <v>0.192848</v>
       </c>
       <c r="H17">
-        <v>0.920563</v>
+        <v>0.5785439999999999</v>
       </c>
       <c r="I17">
-        <v>0.01686250563312022</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="J17">
-        <v>0.01686250563312022</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>1.373217333333334</v>
+        <v>0.0405</v>
       </c>
       <c r="N17">
-        <v>4.119652</v>
+        <v>0.1215</v>
       </c>
       <c r="O17">
-        <v>0.04216891968544611</v>
+        <v>0.001291448192694785</v>
       </c>
       <c r="P17">
-        <v>0.04216891968544611</v>
+        <v>0.001291448192694784</v>
       </c>
       <c r="Q17">
-        <v>0.4213776893417778</v>
+        <v>0.007810344</v>
       </c>
       <c r="R17">
-        <v>3.792399204076</v>
+        <v>0.07029309599999999</v>
       </c>
       <c r="S17">
-        <v>0.000711073645738429</v>
+        <v>1.155751581393119E-05</v>
       </c>
       <c r="T17">
-        <v>0.000711073645738429</v>
+        <v>1.155751581393119E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3068543333333333</v>
+        <v>0.3091146666666666</v>
       </c>
       <c r="H18">
-        <v>0.920563</v>
+        <v>0.9273439999999999</v>
       </c>
       <c r="I18">
-        <v>0.01686250563312022</v>
+        <v>0.0143447168438059</v>
       </c>
       <c r="J18">
-        <v>0.01686250563312022</v>
+        <v>0.0143447168438059</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,42 +1550,42 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.70216233333333</v>
+        <v>2.161420333333333</v>
       </c>
       <c r="N18">
-        <v>77.106487</v>
+        <v>6.484261</v>
       </c>
       <c r="O18">
-        <v>0.7892650295534415</v>
+        <v>0.06892252797869364</v>
       </c>
       <c r="P18">
-        <v>0.7892650295534415</v>
+        <v>0.06892252797869362</v>
       </c>
       <c r="Q18">
-        <v>7.886819888020112</v>
+        <v>0.6681267258648889</v>
       </c>
       <c r="R18">
-        <v>70.98137899218101</v>
+        <v>6.013140532784</v>
       </c>
       <c r="S18">
-        <v>0.0133089860068697</v>
+        <v>0.0009886741480136499</v>
       </c>
       <c r="T18">
-        <v>0.0133089860068697</v>
+        <v>0.0009886741480136497</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,57 +1594,57 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3068543333333333</v>
+        <v>0.3091146666666666</v>
       </c>
       <c r="H19">
-        <v>0.920563</v>
+        <v>0.9273439999999999</v>
       </c>
       <c r="I19">
-        <v>0.01686250563312022</v>
+        <v>0.0143447168438059</v>
       </c>
       <c r="J19">
-        <v>0.01686250563312022</v>
+        <v>0.0143447168438059</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.08316866666666667</v>
+        <v>25.70216233333333</v>
       </c>
       <c r="N19">
-        <v>0.249506</v>
+        <v>77.106487</v>
       </c>
       <c r="O19">
-        <v>0.00255395321620295</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="P19">
-        <v>0.00255395321620295</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="Q19">
-        <v>0.02552066576422222</v>
+        <v>7.944915342280889</v>
       </c>
       <c r="R19">
-        <v>0.229685991878</v>
+        <v>71.504238080528</v>
       </c>
       <c r="S19">
-        <v>4.306605049494775E-05</v>
+        <v>0.0117566505020465</v>
       </c>
       <c r="T19">
-        <v>4.306605049494775E-05</v>
+        <v>0.0117566505020465</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3068543333333333</v>
+        <v>0.3091146666666666</v>
       </c>
       <c r="H20">
-        <v>0.920563</v>
+        <v>0.9273439999999999</v>
       </c>
       <c r="I20">
-        <v>0.01686250563312022</v>
+        <v>0.0143447168438059</v>
       </c>
       <c r="J20">
-        <v>0.01686250563312022</v>
+        <v>0.0143447168438059</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,43 +1674,43 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.234191333333333</v>
+        <v>3.456060333333333</v>
       </c>
       <c r="N20">
-        <v>15.702574</v>
+        <v>10.368181</v>
       </c>
       <c r="O20">
-        <v>0.1607321642363904</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="P20">
-        <v>0.1607321642363904</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="Q20">
-        <v>1.606134292129111</v>
+        <v>1.068318937918222</v>
       </c>
       <c r="R20">
-        <v>14.455208629162</v>
+        <v>9.614870441263999</v>
       </c>
       <c r="S20">
-        <v>0.002710347024859737</v>
+        <v>0.001580866735103092</v>
       </c>
       <c r="T20">
-        <v>0.002710347024859737</v>
+        <v>0.001580866735103092</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3068543333333333</v>
+        <v>0.3091146666666666</v>
       </c>
       <c r="H21">
-        <v>0.920563</v>
+        <v>0.9273439999999999</v>
       </c>
       <c r="I21">
-        <v>0.01686250563312022</v>
+        <v>0.0143447168438059</v>
       </c>
       <c r="J21">
-        <v>0.01686250563312022</v>
+        <v>0.0143447168438059</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1719393333333333</v>
+        <v>0.0405</v>
       </c>
       <c r="N21">
-        <v>0.515818</v>
+        <v>0.1215</v>
       </c>
       <c r="O21">
-        <v>0.005279933308519127</v>
+        <v>0.001291448192694785</v>
       </c>
       <c r="P21">
-        <v>0.005279933308519127</v>
+        <v>0.001291448192694784</v>
       </c>
       <c r="Q21">
-        <v>0.05276032950377778</v>
+        <v>0.012519144</v>
       </c>
       <c r="R21">
-        <v>0.474842965534</v>
+        <v>0.112672296</v>
       </c>
       <c r="S21">
-        <v>8.903290515740284E-05</v>
+        <v>1.852545864265156E-05</v>
       </c>
       <c r="T21">
-        <v>8.903290515740284E-05</v>
+        <v>1.852545864265156E-05</v>
       </c>
     </row>
   </sheetData>
